--- a/sputnik/personal/uch/uch336.xlsx
+++ b/sputnik/personal/uch/uch336.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
@@ -36,54 +33,16 @@
     <t xml:space="preserve">Погашена задолженность по оплате членского взноса 2018/2019 </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Оплачены пени за просрочку оплаты взносов 2018 на </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">327 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>к.д.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Начислены пени за просрочку оплаты взносов 2018 на </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">327 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>к.д.</t>
-    </r>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №336</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взносов 2018 на 327 к.д.</t>
+  </si>
+  <si>
+    <t>Оплачены пени за просрочку оплаты взносов 2018 на 327 к.д.</t>
   </si>
 </sst>
 </file>
@@ -108,20 +67,19 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,12 +89,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -236,23 +188,32 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -563,7 +524,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -577,10 +538,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="12"/>
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -589,11 +552,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="10">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="6">
         <v>11044.6</v>
@@ -601,63 +564,60 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="17">
         <v>43586</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="13">
+        <v>3</v>
+      </c>
+      <c r="C4" s="18">
         <v>10887.8</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="11">
         <v>43712</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="10">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="16">
         <v>11044.6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="11">
         <v>43712</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="14">
         <v>3611.39</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="11">
         <v>43712</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9">
+      <c r="B7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14">
         <v>3611.39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch336.xlsx
+++ b/sputnik/personal/uch/uch336.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Оплачены пени за просрочку оплаты взносов 2018 на 327 к.д.</t>
+  </si>
+  <si>
+    <t>Начислен взнос 2020/2021</t>
   </si>
 </sst>
 </file>
@@ -170,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -214,6 +217,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -521,10 +527,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C8" sqref="C8:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -612,10 +618,32 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="19">
+        <v>43952</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="20">
+        <v>12250</v>
+      </c>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch336.xlsx
+++ b/sputnik/personal/uch/uch336.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,13 +46,22 @@
   </si>
   <si>
     <t>Начислен взнос 2020/2021</t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос</t>
+  </si>
+  <si>
+    <t>начислены пени</t>
+  </si>
+  <si>
+    <t>оплачены пени</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,19 +79,12 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +94,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -173,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -192,7 +206,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -205,21 +218,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -530,7 +549,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D12"/>
+      <selection activeCell="A11" sqref="A11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -544,10 +563,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -558,7 +577,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -570,80 +589,112 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>43586</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="20">
         <v>10887.8</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>43712</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>11044.6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>43712</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>3611.39</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>43712</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13">
         <v>3611.39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="21">
         <v>43952</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="23">
         <v>12250</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="A9" s="24">
+        <v>44186</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26">
+        <v>10887.8</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="A10" s="21">
+        <v>44186</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23">
+        <v>12250</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="A11" s="16">
+        <v>44186</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="17">
+        <v>5050.2</v>
+      </c>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="16">
+        <v>44186</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17">
+        <v>5050.2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch336.xlsx
+++ b/sputnik/personal/uch/uch336.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>оплачены пени</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -187,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -239,6 +242,7 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -546,10 +550,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -694,6 +698,17 @@
       <c r="C12" s="17"/>
       <c r="D12" s="17">
         <v>5050.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>44317</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>13063.4</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch336.xlsx
+++ b/sputnik/personal/uch/uch336.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +82,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -190,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -205,9 +212,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -221,28 +225,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -550,10 +562,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -567,10 +579,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -581,135 +593,196 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="22">
         <v>11044.6</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="12">
         <v>43586</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="23">
         <v>10887.8</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>43712</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="15">
+      <c r="C5" s="24"/>
+      <c r="D5" s="25">
         <v>11044.6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="20">
         <v>43712</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="26">
         <v>3611.39</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="20">
         <v>43712</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26">
         <v>3611.39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="A8" s="14">
         <v>43952</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="28">
         <v>12250</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="16">
         <v>44186</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29">
         <v>10887.8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="A10" s="14">
         <v>44186</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23">
+      <c r="C10" s="28"/>
+      <c r="D10" s="28">
         <v>12250</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="18">
         <v>44186</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="26">
         <v>5050.2</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="18">
         <v>44186</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26">
         <v>5050.2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
+      <c r="A13" s="11">
         <v>44317</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="24">
         <v>13063.4</v>
       </c>
+      <c r="D13" s="24"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>44553</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24">
+        <v>13063.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>44553</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="24">
+        <v>1098.58</v>
+      </c>
+      <c r="D15" s="24"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>44553</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24">
+        <v>1098.58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
